--- a/data.xlsx
+++ b/data.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>canquilleriee</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t>canquillerie</t>
   </si>
   <si>
     <t>Zouhaier HAjjem</t>
@@ -27,7 +27,7 @@
     <t>Aziz Ajroud</t>
   </si>
   <si>
-    <t>Laboo</t>
+    <t>Labo</t>
   </si>
   <si>
     <t>Ghaith Benna</t>
@@ -63,6 +63,21 @@
     <t>Moamen</t>
   </si>
   <si>
+    <t>societe</t>
+  </si>
+  <si>
+    <t>Mourad</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>zzzzz</t>
+  </si>
+  <si>
     <t>NomPr</t>
   </si>
   <si>
@@ -78,7 +93,7 @@
     <t>Fadi Zaghdoud</t>
   </si>
   <si>
-    <t>Publicite</t>
+    <t>Publicitee</t>
   </si>
   <si>
     <t xml:space="preserve">Amine </t>
@@ -99,10 +114,16 @@
     <t>envoyer plantes</t>
   </si>
   <si>
-    <t xml:space="preserve">oussema </t>
-  </si>
-  <si>
-    <t>hajjem</t>
+    <t>aymen</t>
+  </si>
+  <si>
+    <t>chaud froid</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>agence</t>
   </si>
   <si>
     <t>NomColl</t>
@@ -156,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,16 +185,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -286,6 +307,62 @@
       </c>
       <c r="D9" t="n">
         <v>940004.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45357.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45351.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45357.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>45357.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1111.0</v>
       </c>
     </row>
   </sheetData>
@@ -295,7 +372,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,21 +380,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>45323.0</v>
@@ -325,10 +402,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>45351.0</v>
@@ -336,10 +413,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>45330.0</v>
@@ -347,10 +424,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>45322.0</v>
@@ -358,13 +435,24 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>45356.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45357.0</v>
       </c>
     </row>
   </sheetData>
